--- a/blueprint.xlsx
+++ b/blueprint.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -536,6 +536,36 @@
       </c>
       <c r="H2">
         <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
